--- a/biology/Zoologie/Eosimias/Eosimias.xlsx
+++ b/biology/Zoologie/Eosimias/Eosimias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eosimias (littéralement « singe de l'aube ») est un genre éteint de Primates de la famille des Eosimiidae, considérée comme une famille basale de singes.
 </t>
@@ -511,10 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des infra-ordres actuels de primates, d'après Perelman et al. (2011)[1] :
-K. Christopher (Chris) Beard, chef de l'équipe qui a découvert Eosimias sinensis et l'a décrit en 1994, classe Eosimias dans un groupe archaïque au sein des Simiiformes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des infra-ordres actuels de primates, d'après Perelman et al. (2011) :
+K. Christopher (Chris) Beard, chef de l'équipe qui a découvert Eosimias sinensis et l'a décrit en 1994, classe Eosimias dans un groupe archaïque au sein des Simiiformes.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre Eosimias comprend quatre espèces :
 † Eosimias sinensis, découverte en Chine en 1994
-† Eosimias centennicus, découverte en Chine en 1994[3]
+† Eosimias centennicus, découverte en Chine en 1994
 † Eosimias dawsonae
 † Eosimias paukkaungensis</t>
         </is>
@@ -577,10 +593,12 @@
           <t>Premiers singes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Environ 16 espèces de singes primitifs ont habité la Chine à l'Éocène et les éosimidés figurent parmi les plus anciens singes connus dans le monde, datés de 45 à 42 millions d'années, pendant l'Éocène. Plusieurs autres singes archaïques ont été découverts dans les mêmes gisements où l'on avait trouvé les fossiles d'éosimidés, qui conduisent à penser que les singes sont apparus en Asie[4],[5].
-Ces premiers singes auraient gagné l'Afrique il y a environ 38 millions d'années, puis rejoint avant la fin de l'Éocène les Amériques, embarqués peut-être sur des grands radeaux faits d’entrelacs de troncs d’arbres et de branches issus de tempêtes ou de crues à l'embouchure des grands fleuves africains[6]. Les singes américains forment les platyrrhiniens, ou singes du Nouveau Monde.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Environ 16 espèces de singes primitifs ont habité la Chine à l'Éocène et les éosimidés figurent parmi les plus anciens singes connus dans le monde, datés de 45 à 42 millions d'années, pendant l'Éocène. Plusieurs autres singes archaïques ont été découverts dans les mêmes gisements où l'on avait trouvé les fossiles d'éosimidés, qui conduisent à penser que les singes sont apparus en Asie,.
+Ces premiers singes auraient gagné l'Afrique il y a environ 38 millions d'années, puis rejoint avant la fin de l'Éocène les Amériques, embarqués peut-être sur des grands radeaux faits d’entrelacs de troncs d’arbres et de branches issus de tempêtes ou de crues à l'embouchure des grands fleuves africains. Les singes américains forment les platyrrhiniens, ou singes du Nouveau Monde.
 La Grande Coupure, il y a 34 millions d'années, est marquée par un refroidissement rapide qui a un impact important sur la flore et les faunes, et entraine l'extinction des éosimidés.
 </t>
         </is>
